--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1624685.241313141</v>
+        <v>1622797.659796739</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>580973.2245185202</v>
+        <v>562363.8554767243</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -710,22 +710,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>274.452171367011</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>285.3512972079787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -795,7 +795,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494254</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,13 +826,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>59.6638564154455</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>316.1730805916023</v>
+        <v>48.28463004918702</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,10 +1066,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>59.66385641544551</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>60.46179076613092</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>163.8950372953901</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>25.31590541686258</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3743261851591</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>158.4849644533838</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>100.4879364842344</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>115.5269768002171</v>
+        <v>103.3575834456756</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2017,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>102.6104623981302</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.9332216985833</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>157.2425576766694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>47.20011114811118</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>51.20625352634689</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>58.71291134403099</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>118.4898845065135</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75.86338198046053</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965531</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801196</v>
+        <v>91.23070601801213</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437403</v>
+        <v>90.2177913943742</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897891</v>
+        <v>8.815482471235224</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571477</v>
+        <v>55.21598883571495</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523576</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593963</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463133</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1791.109440255352</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,10 +4346,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1716.322045950807</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="X2" t="n">
-        <v>2465.942913862886</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y2" t="n">
-        <v>2177.709280319473</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4404,46 +4404,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940987</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117056</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>114.2095034521276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4531,7 +4531,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1528.349585887292</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="C5" t="n">
-        <v>1528.349585887292</v>
+        <v>1257.755191400004</v>
       </c>
       <c r="D5" t="n">
-        <v>1170.083887280542</v>
+        <v>899.4894927932537</v>
       </c>
       <c r="E5" t="n">
-        <v>784.2956346822975</v>
+        <v>513.7012401950094</v>
       </c>
       <c r="F5" t="n">
-        <v>373.30972989269</v>
+        <v>102.7153354054018</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1528.349585887292</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y5" t="n">
-        <v>1528.349585887292</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.569858826099</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>2476.569858826099</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>2476.569858826099</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4899,7 +4899,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,10 +5024,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5036,13 +5036,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5063,13 +5063,13 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>452.5377573864724</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>897.6601296826479</v>
+        <v>1767.631387430578</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.071707946799</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>564.1830073829216</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C13" t="n">
-        <v>395.2468244550147</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5206,43 +5206,43 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655735</v>
+        <v>844.0280401273992</v>
       </c>
       <c r="W13" t="n">
-        <v>665.685973528613</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X13" t="n">
-        <v>564.1830073829216</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="Y13" t="n">
-        <v>564.1830073829216</v>
+        <v>554.6108700904385</v>
       </c>
     </row>
     <row r="14">
@@ -5273,37 +5273,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M15" t="n">
-        <v>2056.693778606511</v>
+        <v>772.8730769161742</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>1138.699705022017</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>994.3109288932103</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>825.3747459653034</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609661</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550792</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="W16" t="n">
-        <v>441.9005583181186</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201011</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.9110074201011</v>
+        <v>1098.712528333287</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5516,7 +5516,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,10 +5531,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5592,19 +5592,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M18" t="n">
-        <v>2056.693778606511</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N18" t="n">
-        <v>2623.573505376138</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>710.3120936331045</v>
+        <v>881.7531914306749</v>
       </c>
       <c r="C19" t="n">
-        <v>710.3120936331045</v>
+        <v>712.817008502768</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1954542207687</v>
+        <v>562.7003690904322</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>562.7003690904322</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5674,10 +5674,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1284.194235404444</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1284.194235404444</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>1284.194235404444</v>
       </c>
       <c r="V19" t="n">
-        <v>986.0022165609664</v>
+        <v>1284.194235404444</v>
       </c>
       <c r="W19" t="n">
-        <v>710.3120936331045</v>
+        <v>1284.194235404444</v>
       </c>
       <c r="X19" t="n">
-        <v>710.3120936331045</v>
+        <v>1284.194235404444</v>
       </c>
       <c r="Y19" t="n">
-        <v>710.3120936331045</v>
+        <v>1063.401656260914</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,55 +5747,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L21" t="n">
-        <v>388.8958536704856</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>388.8958536704856</v>
+        <v>2056.693778606512</v>
       </c>
       <c r="N21" t="n">
-        <v>1193.307431934636</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286131</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>437.6964226305957</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6008,25 +6008,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M24" t="n">
-        <v>865.5852378527475</v>
+        <v>828.4426798345003</v>
       </c>
       <c r="N24" t="n">
-        <v>1669.996816116898</v>
+        <v>1632.854258098651</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>2302.31801940131</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>441.900558318119</v>
+        <v>467.9934022109799</v>
       </c>
       <c r="C25" t="n">
-        <v>441.900558318119</v>
+        <v>299.057219283073</v>
       </c>
       <c r="D25" t="n">
-        <v>291.7839189057833</v>
+        <v>148.9405798707373</v>
       </c>
       <c r="E25" t="n">
-        <v>291.7839189057833</v>
+        <v>148.9405798707373</v>
       </c>
       <c r="F25" t="n">
-        <v>144.8939714078729</v>
+        <v>148.9405798707373</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>148.9405798707373</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X25" t="n">
-        <v>441.900558318119</v>
+        <v>870.4344461847497</v>
       </c>
       <c r="Y25" t="n">
-        <v>441.900558318119</v>
+        <v>649.6418670412196</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,10 +6224,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6251,25 +6251,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>323.6581146605669</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N27" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>471.5883316929522</v>
+        <v>97.21709146028536</v>
       </c>
       <c r="C28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028547</v>
       </c>
       <c r="D28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028559</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028579</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531122</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531122</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.78763177146</v>
+        <v>1090.10087974468</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.78763177146</v>
+        <v>835.4163915387932</v>
       </c>
       <c r="W28" t="n">
-        <v>920.3704617344997</v>
+        <v>545.9992215018326</v>
       </c>
       <c r="X28" t="n">
-        <v>692.3809108364824</v>
+        <v>318.0096706038153</v>
       </c>
       <c r="Y28" t="n">
-        <v>471.5883316929522</v>
+        <v>97.21709146028536</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,37 +6449,37 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6543,22 +6543,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M30" t="n">
-        <v>334.288126757867</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>544.1045888917513</v>
+        <v>439.5324299542173</v>
       </c>
       <c r="C31" t="n">
-        <v>430.9292712452153</v>
+        <v>439.5324299542173</v>
       </c>
       <c r="D31" t="n">
-        <v>430.9292712452153</v>
+        <v>345.1766558232523</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441931</v>
+        <v>253.0244275222299</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276537</v>
+        <v>161.8953453056901</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276537</v>
+        <v>161.8953453056901</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933505</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962057</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056076</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252999</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323876</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818805</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894289</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386989</v>
+        <v>902.6804289818922</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220525</v>
+        <v>730.4517433652455</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598932</v>
+        <v>565.4200295030862</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,19 +6710,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M33" t="n">
-        <v>334.288126757867</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,7 +6859,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
@@ -6932,55 +6932,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,31 +7002,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K36" t="n">
         <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>1122.004430061687</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M36" t="n">
-        <v>1890.372576454149</v>
+        <v>1276.47550669726</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>2080.88708496141</v>
       </c>
       <c r="O36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
         <v>221.529509210313</v>
@@ -7090,16 +7090,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7169,13 +7169,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,34 +7184,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7239,28 +7239,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103128</v>
@@ -7327,7 +7327,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7339,16 +7339,16 @@
         <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384657</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7388,34 +7388,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>334.288126757867</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229661</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506714</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045196</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,37 +7637,37 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,19 +7679,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K45" t="n">
-        <v>323.6581146605669</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L45" t="n">
-        <v>323.6581146605669</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605669</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
         <v>320.8847398504512</v>
@@ -7801,7 +7801,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J46" t="n">
         <v>177.0503551525399</v>
@@ -7831,25 +7831,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9018,13 +9018,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9255,7 +9255,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9483,22 +9483,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -9729,13 +9729,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>271.4211314247261</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>370.8623401849285</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298203</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,7 +10677,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>198.5685309419536</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>21.34701572855354</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>125.2217189048028</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64.3050033817202</v>
+        <v>76.47439673626174</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>95.31034758547307</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>13.58977663800772</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24175,10 +24175,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>61.34209567542541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>119.2934573152664</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>97.70757484118923</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>108.5339097545968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547708973</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.76534157291955</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965514</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>84.89508926774387</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523557</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>918918.2903836161</v>
+        <v>918918.290383616</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>918918.2903836161</v>
+        <v>918918.2903836162</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>918918.2903836162</v>
+        <v>918918.2903836161</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>918918.2903836162</v>
+        <v>918918.2903836161</v>
       </c>
     </row>
     <row r="10">
@@ -26317,31 +26317,31 @@
         <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="G2" t="n">
         <v>449683.4186983651</v>
       </c>
       <c r="H2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="I2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="J2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.418698365</v>
       </c>
       <c r="K2" t="n">
-        <v>467845.4579470613</v>
+        <v>467845.4579470612</v>
       </c>
       <c r="L2" t="n">
-        <v>472099.0176719626</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="M2" t="n">
         <v>472099.0176719627</v>
@@ -26353,7 +26353,7 @@
         <v>472099.0176719626</v>
       </c>
       <c r="P2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.0176719627</v>
       </c>
     </row>
     <row r="3">
@@ -26375,28 +26375,28 @@
         <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.611524223539163e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284577</v>
+        <v>44162.60530284558</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086673</v>
+        <v>10342.9068008669</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284578</v>
+        <v>44162.60530284561</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.1391806191</v>
+      </c>
+      <c r="C4" t="n">
         <v>139059.139180619</v>
-      </c>
-      <c r="C4" t="n">
-        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
@@ -26427,37 +26427,37 @@
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758888</v>
+        <v>787.7936905758218</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758514</v>
+        <v>787.7936905758887</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758629</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477245</v>
+        <v>18952.41620477241</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189631</v>
+        <v>23206.5809318964</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189632</v>
+        <v>23206.58093189641</v>
       </c>
       <c r="O4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26525,43 @@
         <v>250180.8004279344</v>
       </c>
       <c r="D6" t="n">
-        <v>250180.8004279345</v>
+        <v>250180.8004279344</v>
       </c>
       <c r="E6" t="n">
-        <v>-168251.7374178235</v>
+        <v>-168349.1965437957</v>
       </c>
       <c r="F6" t="n">
-        <v>356908.2990590726</v>
+        <v>356810.8399331005</v>
       </c>
       <c r="G6" t="n">
-        <v>356908.2990590726</v>
+        <v>356810.8399331007</v>
       </c>
       <c r="H6" t="n">
-        <v>356908.2990590726</v>
+        <v>356810.8399331002</v>
       </c>
       <c r="I6" t="n">
-        <v>356908.2990590727</v>
+        <v>356810.8399331007</v>
       </c>
       <c r="J6" t="n">
-        <v>180485.0798664797</v>
+        <v>180387.6207405074</v>
       </c>
       <c r="K6" t="n">
-        <v>308102.2279092202</v>
+        <v>308083.7341712861</v>
       </c>
       <c r="L6" t="n">
         <v>340834.4241191741</v>
       </c>
       <c r="M6" t="n">
-        <v>216376.3156862039</v>
+        <v>216376.3156862038</v>
       </c>
       <c r="N6" t="n">
         <v>351177.3309200408</v>
       </c>
       <c r="O6" t="n">
-        <v>351177.3309200409</v>
+        <v>351177.3309200408</v>
       </c>
       <c r="P6" t="n">
-        <v>307014.7256171953</v>
+        <v>307014.7256171954</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964062</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964062</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26741,43 +26741,43 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108341</v>
+        <v>12.92863350108362</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -26969,13 +26969,13 @@
         <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855697</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>53.30008710312387</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>100.8866414480748</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,13 +27546,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>96.50703242634964</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352323</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>97.6110894291927</v>
+        <v>365.499539971608</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242634964</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>155.9865295915269</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.836063383079</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>6.771212764859825</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29530,7 +29530,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31127,10 +31127,10 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423973</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31364,10 +31364,10 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423925</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,7 +31382,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>35.71704454957967</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,22 +31838,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>126.0475280469432</v>
+        <v>160.5761976634611</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31862,13 +31862,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>224.6051223555648</v>
+        <v>21.52118431133863</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,22 +32312,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>92.21452536007956</v>
       </c>
       <c r="N18" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32339,10 +32339,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,37 +32473,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555639</v>
       </c>
       <c r="O21" t="n">
-        <v>359.0632406149275</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32789,34 +32789,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>129.2747437011889</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,16 +33199,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>315.882135905433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>315.882135905433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,22 +33734,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>296.9020265967329</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -33761,10 +33761,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33998,10 +33998,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,25 +34120,25 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34208,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>348.9381740704318</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,25 +34375,25 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,37 +34445,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>449.6185578749248</v>
+        <v>484.1472274914427</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35510,7 +35510,7 @@
         <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>572.6057846157851</v>
+        <v>369.5218465715589</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>415.7855551880612</v>
       </c>
       <c r="N18" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157842</v>
       </c>
       <c r="O21" t="n">
-        <v>610.3293154472126</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>128.8248869802817</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>313.7631049267958</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>228.7283062629101</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36850,10 +36850,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>548.168101429018</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412274</v>
+        <v>67.71102679412256</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043197</v>
+        <v>94.42895660043179</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>548.168101429018</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,16 +37388,16 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>548.168101429018</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,10 +37628,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414415</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>239.4656922197789</v>
+        <v>672.5092038984134</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,19 +38017,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>60.72709196759461</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
